--- a/assets/wireframe_layout.xlsx
+++ b/assets/wireframe_layout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bootcamp\project_weather_report\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2052E92B-88EA-4DDB-AC6F-81290735C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44781D7-2157-4F29-BEEB-D9D47A9AD6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27810" yWindow="1365" windowWidth="21600" windowHeight="12405" xr2:uid="{D35C911E-2F85-4240-9F27-832CB7C27278}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>input box for city / town</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Header and a logo - five day forecast</t>
+  </si>
+  <si>
+    <t>Drill to 3hourly forecast</t>
+  </si>
+  <si>
+    <t>City details</t>
   </si>
 </sst>
 </file>
@@ -83,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -171,34 +177,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,11 +590,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4000FBD9-0E25-421F-8E0B-60DB4307273F}">
-  <dimension ref="E2:R14"/>
+  <dimension ref="E2:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -548,34 +601,34 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="3"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -583,107 +636,236 @@
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="9" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="H10" s="1" t="s">
+      <c r="F15" s="2"/>
+      <c r="H15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="K10" s="1" t="s">
+      <c r="I15" s="2"/>
+      <c r="K15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="N10" s="1" t="s">
+      <c r="L15" s="2"/>
+      <c r="N15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="Q10" s="1" t="s">
+      <c r="O15" s="2"/>
+      <c r="Q15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="8"/>
-    </row>
-    <row r="14" spans="5:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="6"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="6"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="6"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="21" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="S23" s="12">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="24" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="S28" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="N10:O14"/>
-    <mergeCell ref="Q10:R14"/>
+  <mergeCells count="18">
+    <mergeCell ref="O23:O28"/>
+    <mergeCell ref="Q23:Q28"/>
+    <mergeCell ref="S23:S28"/>
+    <mergeCell ref="E21:S21"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="G23:G28"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="M23:M28"/>
+    <mergeCell ref="N15:O19"/>
+    <mergeCell ref="Q15:R19"/>
     <mergeCell ref="E3:R4"/>
     <mergeCell ref="E6:H7"/>
     <mergeCell ref="I6:L7"/>
-    <mergeCell ref="E10:F14"/>
-    <mergeCell ref="H10:I14"/>
-    <mergeCell ref="K10:L14"/>
+    <mergeCell ref="E15:F19"/>
+    <mergeCell ref="H15:I19"/>
+    <mergeCell ref="K15:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
